--- a/Resources/Python vs JS.xlsx
+++ b/Resources/Python vs JS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developers Institute\DevelopersInstitute\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C010F1-F223-4DDC-BF9D-622F4599F584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E58BFC8-82F6-4BDC-BE20-9D099D7110FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Python</t>
   </si>
@@ -51,13 +51,379 @@
   </si>
   <si>
     <t>string_without_sw=[word for word in b if not word in stopwords.words()]</t>
+  </si>
+  <si>
+    <t>JSON (import json)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>"menu.json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>"r"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>file:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF94558D"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>.menu=file.read()</t>
+    </r>
+  </si>
+  <si>
+    <t>file read</t>
+  </si>
+  <si>
+    <t>file write</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>"menu.json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>"w"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>file:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF94558D"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>.menu=file.write()</t>
+    </r>
+  </si>
+  <si>
+    <t>json object to string</t>
+  </si>
+  <si>
+    <t>we cannot work on json objects directly in python</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>.loads(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>string to json object</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>.dumps(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>indent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +444,60 @@
       <color theme="1"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF8888C6"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF94558D"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFAA4926"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6897BB"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -121,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,6 +553,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -463,25 +892,69 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" ht="19.95" customHeight="1"/>
-    <row r="17" ht="19.95" customHeight="1"/>
-    <row r="18" ht="19.95" customHeight="1"/>
-    <row r="19" ht="19.95" customHeight="1"/>
-    <row r="20" ht="19.95" customHeight="1"/>
-    <row r="21" ht="19.95" customHeight="1"/>
-    <row r="22" ht="19.95" customHeight="1"/>
-    <row r="23" ht="19.95" customHeight="1"/>
-    <row r="24" ht="19.95" customHeight="1"/>
-    <row r="25" ht="19.95" customHeight="1"/>
-    <row r="26" ht="19.95" customHeight="1"/>
-    <row r="27" ht="19.95" customHeight="1"/>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1">
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.95" customHeight="1">
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="19" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.95" customHeight="1">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="23" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="24" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="25" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="26" spans="1:2" ht="19.95" customHeight="1"/>
+    <row r="27" spans="1:2" ht="19.95" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
